--- a/CutDM/GlCM_DMTODA_Sinfourier.xlsx
+++ b/CutDM/GlCM_DMTODA_Sinfourier.xlsx
@@ -15,72 +15,48 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$306</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$R$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$R$3:$R$306</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$H$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$H$3:$H$306</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$P$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$P$3:$P$306</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$X$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$X$3:$X$306</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$F$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$3:$F$306</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$3:$N$306</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$V$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$V$3:$V$306</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$F$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$F$3:$F$306</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$N$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$N$3:$N$306</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$V$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$V$3:$V$306</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$3:$M$306</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$306</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$S$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$S$3:$S$306</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$3:$E$306</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$M$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$M$3:$M$306</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$U$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$U$3:$U$306</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$D$3:$D$306</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$L$3:$L$306</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$T$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$T$3:$T$306</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$G$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$G$3:$G$306</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$O$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$O$3:$O$306</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$W$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$W$3:$W$306</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$3:$J$306</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$2</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$3:$H$306</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$P$2</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$P$3:$P$306</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$X$2</definedName>
     <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$X$3:$X$306</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$G$2</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$G$3:$G$306</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$O$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$O$3:$O$306</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$U$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$W$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$W$3:$W$306</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$3:$C$306</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$K$2</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$K$3:$K$306</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$S$2</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$S$3:$S$306</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$3:$B$306</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$U$3:$U$306</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$J$3:$J$306</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$R$2</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$R$3:$R$306</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$D$3:$D$306</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$L$2</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$L$3:$L$306</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$T$2</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$T$3:$T$306</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$G$2</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$G$3:$G$306</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$O$2</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$O$3:$O$306</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$W$2</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$W$3:$W$306</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$306</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$3:$J$306</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$F$3:$F$306</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$N$2</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$N$3:$N$306</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$R$2</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$V$2</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$V$3:$V$306</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$R$3:$R$306</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$3:$C$306</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$K$3:$K$306</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -212,285 +188,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Contraste</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
-              <cx:v>NO RE/DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
-              <cx:v>RE</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Energia</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>NO RE/DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>RE</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Homogeneidad</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
-              <cx:v>DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
-              <cx:v>NO RE/DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
-              <cx:v>RE</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
@@ -517,7 +214,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Correlación</a:t>
+              <a:t>Contraste</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -575,11 +272,386 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Energia</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>NO RE/DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>RE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Homogeneidad</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>NO RE/DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>RE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Correlación</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>NO RE/DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>RE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
   </cx:chart>
 </cx:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Disimilitud</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>NO RE/DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>RE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -610,7 +682,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Disimilitud</a:t>
+              <a:t>ASM</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -672,115 +744,22 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>ASM</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
-              <cx:v>DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
-              <cx:v>NO RE/DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
-              <cx:v>RE</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -807,7 +786,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A91C91E2-E4F1-45BC-B219-1300372C2A11}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>DM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -820,7 +799,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{25B62058-6E38-4277-9859-60A0D75FBD88}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>NO RE/DM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -833,7 +812,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BC0F5B3F-F63F-4D31-9F60-910D5F28C75E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>RE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5310,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V28" workbookViewId="0">
-      <selection activeCell="AG49" sqref="AG49"/>
+    <sheetView tabSelected="1" topLeftCell="AA34" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
